--- a/Input/Curves/EUR Inflation 31122019.xlsx
+++ b/Input/Curves/EUR Inflation 31122019.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10A7F198-65CA-45E3-8E79-AAC373CC4D81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530DB196-D2FB-4386-B18B-EA962DC76AC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00380F7A-0C03-4513-9A71-4234D0B1B051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7469DB64-E5B9-41FD-B71D-4963C3460F2F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.035E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.2E-2</v>
+        <v>1.0038E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -437,23 +437,71 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.025E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.0460000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0691000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.1174999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.316E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.4109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.5387E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>50</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.9E-2</v>
+      <c r="B13" s="1">
+        <v>1.5824999999999999E-2</v>
       </c>
     </row>
   </sheetData>
